--- a/natmiOut/OldD0/LR-pairs_lrc2p/Thbs2-Cd47.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Thbs2-Cd47.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.765328011989419</v>
+        <v>1.191131666666666</v>
       </c>
       <c r="H2">
-        <v>0.765328011989419</v>
+        <v>3.573395</v>
       </c>
       <c r="I2">
-        <v>0.01775829266561649</v>
+        <v>0.02720036629735778</v>
       </c>
       <c r="J2">
-        <v>0.01775829266561649</v>
+        <v>0.02720036629735778</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>53.5651392377266</v>
+        <v>59.45197733333333</v>
       </c>
       <c r="N2">
-        <v>53.5651392377266</v>
+        <v>178.355932</v>
       </c>
       <c r="O2">
-        <v>0.2837035581703172</v>
+        <v>0.304222453049858</v>
       </c>
       <c r="P2">
-        <v>0.2837035581703172</v>
+        <v>0.304222453049858</v>
       </c>
       <c r="Q2">
-        <v>40.99490152474572</v>
+        <v>70.81513284768221</v>
       </c>
       <c r="R2">
-        <v>40.99490152474572</v>
+        <v>637.33619562914</v>
       </c>
       <c r="S2">
-        <v>0.005038090816265244</v>
+        <v>0.008274962158836866</v>
       </c>
       <c r="T2">
-        <v>0.005038090816265244</v>
+        <v>0.008274962158836866</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.765328011989419</v>
+        <v>1.191131666666666</v>
       </c>
       <c r="H3">
-        <v>0.765328011989419</v>
+        <v>3.573395</v>
       </c>
       <c r="I3">
-        <v>0.01775829266561649</v>
+        <v>0.02720036629735778</v>
       </c>
       <c r="J3">
-        <v>0.01775829266561649</v>
+        <v>0.02720036629735778</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>106.906837670464</v>
+        <v>107.1770123333333</v>
       </c>
       <c r="N3">
-        <v>106.906837670464</v>
+        <v>321.531037</v>
       </c>
       <c r="O3">
-        <v>0.5662236796443431</v>
+        <v>0.548436823552382</v>
       </c>
       <c r="P3">
-        <v>0.5662236796443431</v>
+        <v>0.5484368235523819</v>
       </c>
       <c r="Q3">
-        <v>81.81879754241174</v>
+        <v>127.6619333289572</v>
       </c>
       <c r="R3">
-        <v>81.81879754241174</v>
+        <v>1148.957399960615</v>
       </c>
       <c r="S3">
-        <v>0.01005516581732652</v>
+        <v>0.01491768249158417</v>
       </c>
       <c r="T3">
-        <v>0.01005516581732652</v>
+        <v>0.01491768249158416</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.765328011989419</v>
+        <v>1.191131666666666</v>
       </c>
       <c r="H4">
-        <v>0.765328011989419</v>
+        <v>3.573395</v>
       </c>
       <c r="I4">
-        <v>0.01775829266561649</v>
+        <v>0.02720036629735778</v>
       </c>
       <c r="J4">
-        <v>0.01775829266561649</v>
+        <v>0.02720036629735778</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>28.3347465012126</v>
+        <v>28.793724</v>
       </c>
       <c r="N4">
-        <v>28.3347465012126</v>
+        <v>86.38117199999999</v>
       </c>
       <c r="O4">
-        <v>0.1500727621853398</v>
+        <v>0.1473407233977601</v>
       </c>
       <c r="P4">
-        <v>0.1500727621853398</v>
+        <v>0.1473407233977601</v>
       </c>
       <c r="Q4">
-        <v>21.68537520999719</v>
+        <v>34.29711645765999</v>
       </c>
       <c r="R4">
-        <v>21.68537520999719</v>
+        <v>308.6740481189399</v>
       </c>
       <c r="S4">
-        <v>0.002665036032024727</v>
+        <v>0.004007721646936748</v>
       </c>
       <c r="T4">
-        <v>0.002665036032024727</v>
+        <v>0.004007721646936747</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>34.1878300379276</v>
+        <v>34.415161</v>
       </c>
       <c r="H5">
-        <v>34.1878300379276</v>
+        <v>103.245483</v>
       </c>
       <c r="I5">
-        <v>0.7932774991963398</v>
+        <v>0.7858954736735307</v>
       </c>
       <c r="J5">
-        <v>0.7932774991963398</v>
+        <v>0.7858954736735306</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>53.5651392377266</v>
+        <v>59.45197733333333</v>
       </c>
       <c r="N5">
-        <v>53.5651392377266</v>
+        <v>178.355932</v>
       </c>
       <c r="O5">
-        <v>0.2837035581703172</v>
+        <v>0.304222453049858</v>
       </c>
       <c r="P5">
-        <v>0.2837035581703172</v>
+        <v>0.304222453049858</v>
       </c>
       <c r="Q5">
-        <v>1831.275876217323</v>
+        <v>2046.049371695017</v>
       </c>
       <c r="R5">
-        <v>1831.275876217323</v>
+        <v>18414.44434525516</v>
       </c>
       <c r="S5">
-        <v>0.2250556491384525</v>
+        <v>0.2390870488417416</v>
       </c>
       <c r="T5">
-        <v>0.2250556491384525</v>
+        <v>0.2390870488417416</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>34.1878300379276</v>
+        <v>34.415161</v>
       </c>
       <c r="H6">
-        <v>34.1878300379276</v>
+        <v>103.245483</v>
       </c>
       <c r="I6">
-        <v>0.7932774991963398</v>
+        <v>0.7858954736735307</v>
       </c>
       <c r="J6">
-        <v>0.7932774991963398</v>
+        <v>0.7858954736735306</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>106.906837670464</v>
+        <v>107.1770123333333</v>
       </c>
       <c r="N6">
-        <v>106.906837670464</v>
+        <v>321.531037</v>
       </c>
       <c r="O6">
-        <v>0.5662236796443431</v>
+        <v>0.548436823552382</v>
       </c>
       <c r="P6">
-        <v>0.5662236796443431</v>
+        <v>0.5484368235523819</v>
       </c>
       <c r="Q6">
-        <v>3654.912796170139</v>
+        <v>3688.514134950653</v>
       </c>
       <c r="R6">
-        <v>3654.912796170139</v>
+        <v>33196.62721455587</v>
       </c>
       <c r="S6">
-        <v>0.4491725045740139</v>
+        <v>0.4310140172257059</v>
       </c>
       <c r="T6">
-        <v>0.4491725045740139</v>
+        <v>0.4310140172257057</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>34.1878300379276</v>
+        <v>34.415161</v>
       </c>
       <c r="H7">
-        <v>34.1878300379276</v>
+        <v>103.245483</v>
       </c>
       <c r="I7">
-        <v>0.7932774991963398</v>
+        <v>0.7858954736735307</v>
       </c>
       <c r="J7">
-        <v>0.7932774991963398</v>
+        <v>0.7858954736735306</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>28.3347465012126</v>
+        <v>28.793724</v>
       </c>
       <c r="N7">
-        <v>28.3347465012126</v>
+        <v>86.38117199999999</v>
       </c>
       <c r="O7">
-        <v>0.1500727621853398</v>
+        <v>0.1473407233977601</v>
       </c>
       <c r="P7">
-        <v>0.1500727621853398</v>
+        <v>0.1473407233977601</v>
       </c>
       <c r="Q7">
-        <v>968.70349755122</v>
+        <v>990.940647249564</v>
       </c>
       <c r="R7">
-        <v>968.70349755122</v>
+        <v>8918.465825246076</v>
       </c>
       <c r="S7">
-        <v>0.1190493454838734</v>
+        <v>0.1157944076060833</v>
       </c>
       <c r="T7">
-        <v>0.1190493454838734</v>
+        <v>0.1157944076060833</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.14377848561171</v>
+        <v>8.184723</v>
       </c>
       <c r="H8">
-        <v>8.14377848561171</v>
+        <v>24.554169</v>
       </c>
       <c r="I8">
-        <v>0.1889642081380437</v>
+        <v>0.1869041600291116</v>
       </c>
       <c r="J8">
-        <v>0.1889642081380437</v>
+        <v>0.1869041600291116</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>53.5651392377266</v>
+        <v>59.45197733333333</v>
       </c>
       <c r="N8">
-        <v>53.5651392377266</v>
+        <v>178.355932</v>
       </c>
       <c r="O8">
-        <v>0.2837035581703172</v>
+        <v>0.304222453049858</v>
       </c>
       <c r="P8">
-        <v>0.2837035581703172</v>
+        <v>0.304222453049858</v>
       </c>
       <c r="Q8">
-        <v>436.2226285029935</v>
+        <v>486.597966275612</v>
       </c>
       <c r="R8">
-        <v>436.2226285029935</v>
+        <v>4379.381696480508</v>
       </c>
       <c r="S8">
-        <v>0.0536098182155994</v>
+        <v>0.05686044204927954</v>
       </c>
       <c r="T8">
-        <v>0.0536098182155994</v>
+        <v>0.05686044204927954</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.14377848561171</v>
+        <v>8.184723</v>
       </c>
       <c r="H9">
-        <v>8.14377848561171</v>
+        <v>24.554169</v>
       </c>
       <c r="I9">
-        <v>0.1889642081380437</v>
+        <v>0.1869041600291116</v>
       </c>
       <c r="J9">
-        <v>0.1889642081380437</v>
+        <v>0.1869041600291116</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>106.906837670464</v>
+        <v>107.1770123333333</v>
       </c>
       <c r="N9">
-        <v>106.906837670464</v>
+        <v>321.531037</v>
       </c>
       <c r="O9">
-        <v>0.5662236796443431</v>
+        <v>0.548436823552382</v>
       </c>
       <c r="P9">
-        <v>0.5662236796443431</v>
+        <v>0.5484368235523819</v>
       </c>
       <c r="Q9">
-        <v>870.6256045855082</v>
+        <v>877.2141579159169</v>
       </c>
       <c r="R9">
-        <v>870.6256045855082</v>
+        <v>7894.927421243253</v>
       </c>
       <c r="S9">
-        <v>0.1069960092530026</v>
+        <v>0.1025051238350921</v>
       </c>
       <c r="T9">
-        <v>0.1069960092530026</v>
+        <v>0.102505123835092</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.14377848561171</v>
+        <v>8.184723</v>
       </c>
       <c r="H10">
-        <v>8.14377848561171</v>
+        <v>24.554169</v>
       </c>
       <c r="I10">
-        <v>0.1889642081380437</v>
+        <v>0.1869041600291116</v>
       </c>
       <c r="J10">
-        <v>0.1889642081380437</v>
+        <v>0.1869041600291116</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>28.3347465012126</v>
+        <v>28.793724</v>
       </c>
       <c r="N10">
-        <v>28.3347465012126</v>
+        <v>86.38117199999999</v>
       </c>
       <c r="O10">
-        <v>0.1500727621853398</v>
+        <v>0.1473407233977601</v>
       </c>
       <c r="P10">
-        <v>0.1500727621853398</v>
+        <v>0.1473407233977601</v>
       </c>
       <c r="Q10">
-        <v>230.7518989518368</v>
+        <v>235.668655078452</v>
       </c>
       <c r="R10">
-        <v>230.7518989518368</v>
+        <v>2121.017895706068</v>
       </c>
       <c r="S10">
-        <v>0.02835838066944169</v>
+        <v>0.02753859414474002</v>
       </c>
       <c r="T10">
-        <v>0.02835838066944169</v>
+        <v>0.02753859414474001</v>
       </c>
     </row>
   </sheetData>
